--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3959.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3959.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.22385542891581</v>
+        <v>0.889714777469635</v>
       </c>
       <c r="B1">
-        <v>2.310730840593266</v>
+        <v>1.928547263145447</v>
       </c>
       <c r="C1">
-        <v>6.512013382098504</v>
+        <v>3.228466272354126</v>
       </c>
       <c r="D1">
-        <v>3.360645637805223</v>
+        <v>1.861977934837341</v>
       </c>
       <c r="E1">
-        <v>1.387915702494842</v>
+        <v>0.7267252802848816</v>
       </c>
     </row>
   </sheetData>
